--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -571,11 +571,107 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-02-26 00:00:15</t>
+          <t>2024-02-26 00:46:24</t>
         </is>
       </c>
       <c r="N2" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-02-26 11:52:32</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-02-26 12:00:37</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -1,54 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Field Name" sheetId="1" r:id="rId1"/>
-    <sheet name="Application Data Requirements" sheetId="2" r:id="rId2"/>
+    <sheet name="Field Name" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Application Data Requirements" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,13 +43,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,548 +441,756 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>ApplicationCode</v>
-      </c>
-      <c r="B1" t="str">
-        <v>AccountOwner</v>
-      </c>
-      <c r="C1" t="str">
-        <v>AccountName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>AccountType</v>
-      </c>
-      <c r="E1" t="str">
-        <v>EntitlementName</v>
-      </c>
-      <c r="F1" t="str">
-        <v>SecondEntitlementName</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ThirdEntitlementName</v>
-      </c>
-      <c r="H1" t="str">
-        <v>AccountStatus</v>
-      </c>
-      <c r="I1" t="str">
-        <v>IsPrivileged</v>
-      </c>
-      <c r="J1" t="str">
-        <v>AccountDescription</v>
-      </c>
-      <c r="K1" t="str">
-        <v>CreateDate</v>
-      </c>
-      <c r="L1" t="str">
-        <v>LastLogin</v>
-      </c>
-      <c r="M1" t="str">
-        <v>LastUpdatedDate</v>
-      </c>
-      <c r="N1" t="str">
-        <v>AdditionalAttribute</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" t="n">
         <v>6</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" t="n">
         <v>8</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" t="n">
         <v>10</v>
       </c>
-      <c r="K2" t="str">
-        <v>2024-02-26</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>12</v>
       </c>
-      <c r="M2" t="str">
-        <v>2024-02-26 00:01:01</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-02-26 00:01:01</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" t="n">
         <v>5</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" t="n">
         <v>9</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" t="n">
         <v>10</v>
       </c>
-      <c r="K3" t="str">
-        <v>2024-02-27</v>
-      </c>
-      <c r="L3" t="str">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>12</v>
       </c>
-      <c r="M3" t="str">
-        <v>2024-02-27 00:01:01</v>
-      </c>
-      <c r="N3" t="str">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-02-27 00:01:01</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" t="n">
         <v>15</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" t="n">
         <v>17</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" t="n">
         <v>18</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" t="n">
         <v>19</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" t="n">
         <v>20</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" t="n">
         <v>21</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" t="n">
         <v>22</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" t="n">
         <v>23</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" t="n">
         <v>24</v>
       </c>
-      <c r="K4" t="str">
-        <v>2024-02-27</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>26</v>
       </c>
-      <c r="M4" t="str">
-        <v>2024-02-27 00:01:01</v>
-      </c>
-      <c r="N4" t="str">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-02-27 00:01:01</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" t="n">
         <v>29</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" t="n">
         <v>30</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" t="n">
         <v>32</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" t="n">
         <v>33</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" t="n">
         <v>34</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" t="n">
         <v>35</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5" t="n">
         <v>36</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" t="n">
         <v>37</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" t="n">
         <v>38</v>
       </c>
-      <c r="K5" t="str">
-        <v>2024-02-27</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>40</v>
       </c>
-      <c r="M5" t="str">
-        <v>2024-02-27 00:01:01</v>
-      </c>
-      <c r="N5" t="str">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-02-27 17:40:13</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" t="n">
         <v>43</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" t="n">
         <v>44</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" t="n">
         <v>45</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" t="n">
         <v>46</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" t="n">
         <v>47</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" t="n">
         <v>48</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" t="n">
         <v>49</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6" t="n">
         <v>50</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" t="n">
         <v>51</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" t="n">
         <v>52</v>
       </c>
-      <c r="K6" t="str">
-        <v>2024-02-27</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>54</v>
       </c>
-      <c r="M6" t="str">
-        <v>2024-02-27 00:02:33</v>
-      </c>
-      <c r="N6" t="str">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024-02-27 17:40:13</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N6"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Field Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Max Length</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Field format</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Remarks</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Field Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Max Length</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Field format</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>ApplicationCode</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C2" t="str">
-        <v>3</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Alpha</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Unique 3 digit application code Ex: CCP, RMT,RBK etc..</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Unique 3 digit application code Ex: CCP, RMT,RBK etc..</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>AccountOwner</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C3" t="str">
-        <v>7</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Numeric</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Unique 6 Digit LAN ID of the account owner</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Numeric</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Unique 6 Digit LAN ID of the account owner</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>AccountName</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C4" t="str">
-        <v>100</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Unique Application Account ID / Name used by users to login to the application (case sensitive)</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Unique Application Account ID / Name used by users to login to the application (case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>AccountType</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C5" t="str">
-        <v>3</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E5" t="str">
-        <v>User [USR] / Generic [GEN] / Service [SER] / System [SYS] (non-case sensitive)</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>User [USR] / Generic [GEN] / Service [SER] / System [SYS] (non-case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>EntitlementName</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Application entitlement values.</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Application entitlement values.</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>SecondEntitlementName</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Additional Application entitlement values. If no additional value mark it as “NA”.</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Additional Application entitlement values. If no additional value mark it as “NA”.</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>ThirdEntitlementName</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Additional Application entitlement values. If no additional value mark it as “NA”.</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Additional Application entitlement values. If no additional value mark it as “NA”.</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>AccountStatus</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C9" t="str">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Active / Disabled / Locked / Deleted status</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Active / Disabled / Locked / Deleted status</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>IsPrivileged</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C10" t="str">
-        <v>1</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Defines if account is privileged. ‘yes’ [Y] or ‘no’ [N] value (non-case sensitive)</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Defines if account is privileged. ‘yes’ [Y] or ‘no’ [N] value (non-case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>AccountDescription</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C11" t="str">
-        <v>255</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Business friendly description of the Account. Account description is mandatory for non-user accounts.</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Business friendly description of the Account. Account description is mandatory for non-user accounts.</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>CreateDate</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C12" t="str">
-        <v>14</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Date on which account was created.</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Date on which account was created.</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>LastLogin</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C13" t="str">
-        <v>14</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Last date and time the account was used.</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Last date and time the account was used.</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>LastUpdatedDate</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C14" t="str">
-        <v>14</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Last modified date of account (if available in application).</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Last modified date of account (if available in application).</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>AdditionalAttribute</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C15" t="str">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Additional access related attributes delimited with “#’</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Additional access related attributes delimited with “#’</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-02-27 17:40:13</t>
+          <t>2024-02-27 17:47:56</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-02-27 17:40:13</t>
+          <t>2024-02-27 17:47:56</t>
         </is>
       </c>
       <c r="N6" t="n">

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-02-27 00:01:01</t>
+          <t>2024-02-27 22:54:18</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-02-27 17:47:56</t>
+          <t>2024-02-27 22:54:18</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -720,50 +720,50 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-02-27 17:47:56</t>
+          <t>2024-02-28 00:12:40</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,198 @@
       </c>
       <c r="N6" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>26</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-02-28 00:43:06</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29</v>
+      </c>
+      <c r="B8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35</v>
+      </c>
+      <c r="H8" t="n">
+        <v>36</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>38</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>40</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2024-02-28 00:43:06</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46</v>
+      </c>
+      <c r="E9" t="n">
+        <v>47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>48</v>
+      </c>
+      <c r="G9" t="n">
+        <v>49</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="n">
+        <v>51</v>
+      </c>
+      <c r="J9" t="n">
+        <v>52</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>54</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2024-02-28 00:43:06</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57</v>
+      </c>
+      <c r="B10" t="n">
+        <v>58</v>
+      </c>
+      <c r="C10" t="n">
+        <v>59</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>61</v>
+      </c>
+      <c r="F10" t="n">
+        <v>62</v>
+      </c>
+      <c r="G10" t="n">
+        <v>63</v>
+      </c>
+      <c r="H10" t="n">
+        <v>64</v>
+      </c>
+      <c r="I10" t="n">
+        <v>65</v>
+      </c>
+      <c r="J10" t="n">
+        <v>66</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>68</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2024-02-28 00:43:06</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,198 +764,6 @@
       </c>
       <c r="N6" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23</v>
-      </c>
-      <c r="J7" t="n">
-        <v>24</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-02-28</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>26</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024-02-28 00:43:06</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>29</v>
-      </c>
-      <c r="B8" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" t="n">
-        <v>31</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>34</v>
-      </c>
-      <c r="G8" t="n">
-        <v>35</v>
-      </c>
-      <c r="H8" t="n">
-        <v>36</v>
-      </c>
-      <c r="I8" t="n">
-        <v>37</v>
-      </c>
-      <c r="J8" t="n">
-        <v>38</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-02-28</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2024-02-28 00:43:06</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>43</v>
-      </c>
-      <c r="B9" t="n">
-        <v>44</v>
-      </c>
-      <c r="C9" t="n">
-        <v>45</v>
-      </c>
-      <c r="D9" t="n">
-        <v>46</v>
-      </c>
-      <c r="E9" t="n">
-        <v>47</v>
-      </c>
-      <c r="F9" t="n">
-        <v>48</v>
-      </c>
-      <c r="G9" t="n">
-        <v>49</v>
-      </c>
-      <c r="H9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I9" t="n">
-        <v>51</v>
-      </c>
-      <c r="J9" t="n">
-        <v>52</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2024-02-28</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>54</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2024-02-28 00:43:06</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>57</v>
-      </c>
-      <c r="B10" t="n">
-        <v>58</v>
-      </c>
-      <c r="C10" t="n">
-        <v>59</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>61</v>
-      </c>
-      <c r="F10" t="n">
-        <v>62</v>
-      </c>
-      <c r="G10" t="n">
-        <v>63</v>
-      </c>
-      <c r="H10" t="n">
-        <v>64</v>
-      </c>
-      <c r="I10" t="n">
-        <v>65</v>
-      </c>
-      <c r="J10" t="n">
-        <v>66</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2024-02-28</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>68</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2024-02-28 00:43:06</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,195 +527,291 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>12</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>2024-02-26 00:01:01</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>14</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>12</v>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>2024-02-27 00:01:01</t>
         </is>
       </c>
-      <c r="N3" t="n">
-        <v>14</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>16</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J4" t="n">
-        <v>24</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>26</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>2024-02-27 22:54:18</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>28</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>29</v>
-      </c>
-      <c r="B5" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>34</v>
-      </c>
-      <c r="G5" t="n">
-        <v>35</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>38</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>40</v>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>2024-02-27 22:54:18</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>42</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -759,13 +855,110 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-02-28 00:12:40</t>
+          <t>2024-02-28 17:00:15</t>
         </is>
       </c>
       <c r="N6" t="n">
         <v>14</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>26</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-02-28 23:54:20</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2024-02-29 00:02:28</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,99 +815,147 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>12</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>2024-02-28 17:00:15</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>14</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23</v>
-      </c>
-      <c r="J7" t="n">
-        <v>24</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>26</v>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>2024-02-28 23:54:20</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>28</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -951,14 +999,13 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-02-29 00:02:28</t>
+          <t>2024-02-29 11:52:06</t>
         </is>
       </c>
       <c r="N8" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="9"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,50 +528,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-02-26 00:01:01</t>
+          <t>2024-03-01 13:24:50</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -607,7 +607,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-02-27 00:01:01</t>
+          <t>2024-03-01 13:23:46</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -624,194 +624,50 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-02-27 22:54:18</t>
+          <t>2024-03-01 13:27:15</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024-02-28</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>12</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024-02-28 17:00:15</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B6" t="n">
-        <v>16</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19</v>
-      </c>
-      <c r="F6" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" t="n">
-        <v>21</v>
-      </c>
-      <c r="H6" t="n">
-        <v>22</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>24</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-02-28</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>26</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2024-02-28 23:54:20</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-02-29</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>12</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024-02-29 11:52:06</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,50 +528,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-01 13:24:50</t>
+          <t>2024-03-01 16:24:15</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -607,7 +607,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-03-01 13:23:46</t>
+          <t>2024-03-01 14:28:42</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -624,50 +624,194 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-01 13:23:46</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2024-03-01 13:27:15</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>42</v>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-03-01 15:41:18</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>12</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024-03-01 13:33:53</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>26</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-03-01 16:39:42</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,9 +447,185 @@
         <v>AdditionalAttribute</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <v>3</v>
+      </c>
+      <c r="D2" t="str">
+        <v>4</v>
+      </c>
+      <c r="E2" t="str">
+        <v>5</v>
+      </c>
+      <c r="F2" t="str">
+        <v>6</v>
+      </c>
+      <c r="G2" t="str">
+        <v>7</v>
+      </c>
+      <c r="H2" t="str">
+        <v>8</v>
+      </c>
+      <c r="I2" t="str">
+        <v>9</v>
+      </c>
+      <c r="J2" t="str">
+        <v>10</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2024-02-26</v>
+      </c>
+      <c r="L2" t="str">
+        <v>12</v>
+      </c>
+      <c r="M2" t="str">
+        <v>2024-03-03 08:16:53</v>
+      </c>
+      <c r="N2" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
+        <v>4</v>
+      </c>
+      <c r="E3" t="str">
+        <v>5</v>
+      </c>
+      <c r="F3" t="str">
+        <v>6</v>
+      </c>
+      <c r="G3" t="str">
+        <v>7</v>
+      </c>
+      <c r="H3" t="str">
+        <v>8</v>
+      </c>
+      <c r="I3" t="str">
+        <v>9</v>
+      </c>
+      <c r="J3" t="str">
+        <v>10</v>
+      </c>
+      <c r="K3" t="str">
+        <v>2024-02-27</v>
+      </c>
+      <c r="L3" t="str">
+        <v>12</v>
+      </c>
+      <c r="M3" t="str">
+        <v>2024-03-03 08:16:53</v>
+      </c>
+      <c r="N3" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>15</v>
+      </c>
+      <c r="B4" t="str">
+        <v>16</v>
+      </c>
+      <c r="C4" t="str">
+        <v>17</v>
+      </c>
+      <c r="D4" t="str">
+        <v>18</v>
+      </c>
+      <c r="E4" t="str">
+        <v>19</v>
+      </c>
+      <c r="F4" t="str">
+        <v>20</v>
+      </c>
+      <c r="G4" t="str">
+        <v>21</v>
+      </c>
+      <c r="H4" t="str">
+        <v>22</v>
+      </c>
+      <c r="I4" t="str">
+        <v>23</v>
+      </c>
+      <c r="J4" t="str">
+        <v>24</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2024-02-27</v>
+      </c>
+      <c r="L4" t="str">
+        <v>26</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2024-03-03 10:08:36</v>
+      </c>
+      <c r="N4" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>1</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <v>5</v>
+      </c>
+      <c r="F5" t="str">
+        <v>6</v>
+      </c>
+      <c r="G5" t="str">
+        <v>7</v>
+      </c>
+      <c r="H5" t="str">
+        <v>8</v>
+      </c>
+      <c r="I5" t="str">
+        <v>9</v>
+      </c>
+      <c r="J5" t="str">
+        <v>10</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2024-02-28</v>
+      </c>
+      <c r="L5" t="str">
+        <v>12</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2024-03-03 08:16:53</v>
+      </c>
+      <c r="N5" t="str">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N5"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -1,53 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Field Name" sheetId="1" r:id="rId1"/>
-    <sheet name="Application Data Requirements" sheetId="2" r:id="rId2"/>
+    <sheet name="Field Name" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Application Data Requirements" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,13 +43,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,504 +441,780 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>ApplicationCode</v>
-      </c>
-      <c r="B1" t="str">
-        <v>AccountOwner</v>
-      </c>
-      <c r="C1" t="str">
-        <v>AccountName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>AccountType</v>
-      </c>
-      <c r="E1" t="str">
-        <v>EntitlementName</v>
-      </c>
-      <c r="F1" t="str">
-        <v>SecondEntitlementName</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ThirdEntitlementName</v>
-      </c>
-      <c r="H1" t="str">
-        <v>AccountStatus</v>
-      </c>
-      <c r="I1" t="str">
-        <v>IsPrivileged</v>
-      </c>
-      <c r="J1" t="str">
-        <v>AccountDescription</v>
-      </c>
-      <c r="K1" t="str">
-        <v>CreateDate</v>
-      </c>
-      <c r="L1" t="str">
-        <v>LastLogin</v>
-      </c>
-      <c r="M1" t="str">
-        <v>LastUpdatedDate</v>
-      </c>
-      <c r="N1" t="str">
-        <v>AdditionalAttribute</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-03 08:16:53</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E3" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F3" t="n">
         <v>6</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G3" t="n">
         <v>7</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I3" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J3" t="n">
         <v>10</v>
       </c>
-      <c r="K2" t="str">
-        <v>2024-02-26</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>12</v>
       </c>
-      <c r="M2" t="str">
-        <v>2024-03-03 08:16:53</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-03 23:24:50</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2</v>
-      </c>
-      <c r="C3" t="str">
-        <v>3</v>
-      </c>
-      <c r="D3" t="str">
-        <v>4</v>
-      </c>
-      <c r="E3" t="str">
-        <v>5</v>
-      </c>
-      <c r="F3" t="str">
-        <v>6</v>
-      </c>
-      <c r="G3" t="str">
-        <v>7</v>
-      </c>
-      <c r="H3" t="str">
-        <v>8</v>
-      </c>
-      <c r="I3" t="str">
-        <v>9</v>
-      </c>
-      <c r="J3" t="str">
-        <v>10</v>
-      </c>
-      <c r="K3" t="str">
-        <v>2024-02-27</v>
-      </c>
-      <c r="L3" t="str">
-        <v>12</v>
-      </c>
-      <c r="M3" t="str">
-        <v>2024-03-03 08:16:53</v>
-      </c>
-      <c r="N3" t="str">
-        <v>14</v>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" t="n">
         <v>15</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" t="n">
         <v>17</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" t="n">
         <v>18</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" t="n">
         <v>19</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" t="n">
         <v>20</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" t="n">
         <v>21</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" t="n">
         <v>22</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" t="n">
         <v>23</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" t="n">
         <v>24</v>
       </c>
-      <c r="K4" t="str">
-        <v>2024-02-27</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>26</v>
       </c>
-      <c r="M4" t="str">
-        <v>2024-03-03 10:08:36</v>
-      </c>
-      <c r="N4" t="str">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-03 23:43:53</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>1</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2</v>
-      </c>
-      <c r="C5" t="str">
-        <v>3</v>
-      </c>
-      <c r="D5" t="str">
-        <v>4</v>
-      </c>
-      <c r="E5" t="str">
-        <v>5</v>
-      </c>
-      <c r="F5" t="str">
-        <v>6</v>
-      </c>
-      <c r="G5" t="str">
-        <v>7</v>
-      </c>
-      <c r="H5" t="str">
-        <v>8</v>
-      </c>
-      <c r="I5" t="str">
-        <v>9</v>
-      </c>
-      <c r="J5" t="str">
-        <v>10</v>
-      </c>
-      <c r="K5" t="str">
-        <v>2024-02-28</v>
-      </c>
-      <c r="L5" t="str">
-        <v>12</v>
-      </c>
-      <c r="M5" t="str">
-        <v>2024-03-03 08:16:53</v>
-      </c>
-      <c r="N5" t="str">
-        <v>14</v>
+      <c r="A5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>40</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-03-03 23:43:53</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B6" t="n">
+        <v>44</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>48</v>
+      </c>
+      <c r="G6" t="n">
+        <v>49</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="n">
+        <v>51</v>
+      </c>
+      <c r="J6" t="n">
+        <v>52</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>54</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024-03-03 23:43:53</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N5"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Field Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Max Length</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Field format</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Remarks</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Field Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Max Length</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Field format</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>ApplicationCode</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C2" t="str">
-        <v>3</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Alpha</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Unique 3 digit application code Ex: CCP, RMT,RBK etc..</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Unique 3 digit application code Ex: CCP, RMT,RBK etc..</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>AccountOwner</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C3" t="str">
-        <v>7</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Numeric</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Unique 6 Digit LAN ID of the account owner</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Numeric</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Unique 6 Digit LAN ID of the account owner</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>AccountName</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C4" t="str">
-        <v>100</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Unique Application Account ID / Name used by users to login to the application (case sensitive)</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Unique Application Account ID / Name used by users to login to the application (case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>AccountType</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C5" t="str">
-        <v>3</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E5" t="str">
-        <v>User [USR] / Generic [GEN] / Service [SER] / System [SYS] (non-case sensitive)</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>User [USR] / Generic [GEN] / Service [SER] / System [SYS] (non-case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>EntitlementName</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Application entitlement values.</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Application entitlement values.</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>SecondEntitlementName</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Additional Application entitlement values. If no additional value mark it as “NA”.</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Additional Application entitlement values. If no additional value mark it as “NA”.</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>ThirdEntitlementName</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Additional Application entitlement values. If no additional value mark it as “NA”.</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Additional Application entitlement values. If no additional value mark it as “NA”.</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>AccountStatus</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C9" t="str">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Active / Disabled / Locked / Deleted status</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Active / Disabled / Locked / Deleted status</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>IsPrivileged</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C10" t="str">
-        <v>1</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Defines if account is privileged. ‘yes’ [Y] or ‘no’ [N] value (non-case sensitive)</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Defines if account is privileged. ‘yes’ [Y] or ‘no’ [N] value (non-case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>AccountDescription</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C11" t="str">
-        <v>255</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Business friendly description of the Account. Account description is mandatory for non-user accounts.</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Business friendly description of the Account. Account description is mandatory for non-user accounts.</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>CreateDate</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C12" t="str">
-        <v>14</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Date on which account was created.</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Date on which account was created.</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>LastLogin</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C13" t="str">
-        <v>14</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Last date and time the account was used.</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Last date and time the account was used.</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>LastUpdatedDate</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C14" t="str">
-        <v>14</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Last modified date of account (if available in application).</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Last modified date of account (if available in application).</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>AdditionalAttribute</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C15" t="str">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Additional access related attributes delimited with “#’</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Additional access related attributes delimited with “#’</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -639,11 +639,16 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-03-03 23:24:50</t>
+          <t>2024-03-04 10:47:47</t>
         </is>
       </c>
       <c r="N3" t="n">
         <v>14</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Updated</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -693,6 +698,11 @@
       <c r="N4" t="n">
         <v>28</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -741,53 +751,10 @@
       <c r="N5" t="n">
         <v>42</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>43</v>
-      </c>
-      <c r="B6" t="n">
-        <v>44</v>
-      </c>
-      <c r="C6" t="n">
-        <v>45</v>
-      </c>
-      <c r="D6" t="n">
-        <v>46</v>
-      </c>
-      <c r="E6" t="n">
-        <v>47</v>
-      </c>
-      <c r="F6" t="n">
-        <v>48</v>
-      </c>
-      <c r="G6" t="n">
-        <v>49</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>52</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-02-27</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>54</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2024-03-03 23:43:53</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>56</v>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,160 +527,131 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="L2" t="n">
+        <v>12</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>2024-03-03 08:16:53</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="N2" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-03-04 10:47:47</t>
+          <t>2024-03-04 13:11:19</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>14</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Updated</t>
-        </is>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -688,73 +659,303 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-03-03 23:43:53</t>
+          <t>2024-03-04 13:04:20</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>28</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>No_changed</t>
-        </is>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>26</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:13:44</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>12</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:15:33</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>26</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:15:33</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:17:34</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>21</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22</v>
+      </c>
+      <c r="I9" t="n">
+        <v>23</v>
+      </c>
+      <c r="J9" t="n">
+        <v>24</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>26</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:17:34</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>29</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B10" t="n">
         <v>30</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C10" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D10" t="n">
         <v>32</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E10" t="n">
         <v>33</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F10" t="n">
         <v>34</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G10" t="n">
         <v>35</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H10" t="n">
         <v>36</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I10" t="n">
         <v>37</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J10" t="n">
         <v>38</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024-02-27</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
         <v>40</v>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024-03-03 23:43:53</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:17:34</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>42</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>No_changed</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="M3" t="str">
-        <v>2024-03-04 18:29:16</v>
+        <v>2024-03-04 18:36:08</v>
       </c>
       <c r="N3" t="str">
         <v>28</v>
@@ -537,90 +537,90 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4" t="str">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D4" t="str">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E4" t="str">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F4" t="str">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G4" t="str">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H4" t="str">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I4" t="str">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J4" t="str">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K4" t="str">
-        <v>2024-02-26</v>
+        <v>2024-02-27</v>
       </c>
       <c r="L4" t="str">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M4" t="str">
-        <v>2024-03-04 18:29:16</v>
+        <v>2024-03-04 13:04:20</v>
       </c>
       <c r="N4" t="str">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B5" t="str">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C5" t="str">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D5" t="str">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E5" t="str">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F5" t="str">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G5" t="str">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="H5" t="str">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I5" t="str">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J5" t="str">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K5" t="str">
-        <v>2024-02-26</v>
+        <v>2024-02-28</v>
       </c>
       <c r="L5" t="str">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M5" t="str">
-        <v>2024-03-04 18:29:16</v>
+        <v>2024-03-04 18:36:08</v>
       </c>
       <c r="N5" t="str">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -655,13 +655,13 @@
         <v>10</v>
       </c>
       <c r="K6" t="str">
-        <v>2024-02-27</v>
+        <v>2024-02-28</v>
       </c>
       <c r="L6" t="str">
         <v>12</v>
       </c>
       <c r="M6" t="str">
-        <v>2024-03-04 13:04:20</v>
+        <v>2024-03-04 13:15:33</v>
       </c>
       <c r="N6" t="str">
         <v>14</v>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -1,53 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Field Name" sheetId="1" r:id="rId1"/>
-    <sheet name="Application Data Requirements" sheetId="2" r:id="rId2"/>
+    <sheet name="Field Name" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Application Data Requirements" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,13 +43,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,680 +441,900 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>ApplicationCode</v>
-      </c>
-      <c r="B1" t="str">
-        <v>AccountOwner</v>
-      </c>
-      <c r="C1" t="str">
-        <v>AccountName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>AccountType</v>
-      </c>
-      <c r="E1" t="str">
-        <v>EntitlementName</v>
-      </c>
-      <c r="F1" t="str">
-        <v>SecondEntitlementName</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ThirdEntitlementName</v>
-      </c>
-      <c r="H1" t="str">
-        <v>AccountStatus</v>
-      </c>
-      <c r="I1" t="str">
-        <v>IsPrivileged</v>
-      </c>
-      <c r="J1" t="str">
-        <v>AccountDescription</v>
-      </c>
-      <c r="K1" t="str">
-        <v>CreateDate</v>
-      </c>
-      <c r="L1" t="str">
-        <v>LastLogin</v>
-      </c>
-      <c r="M1" t="str">
-        <v>LastUpdatedDate</v>
-      </c>
-      <c r="N1" t="str">
-        <v>AdditionalAttribute</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" t="n">
         <v>6</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" t="n">
         <v>8</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" t="n">
         <v>10</v>
       </c>
-      <c r="K2" t="str">
-        <v>2024-02-26</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>12</v>
       </c>
-      <c r="M2" t="str">
-        <v>2024-03-03 08:16:53</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-03 08:16:53</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" t="n">
         <v>15</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" t="n">
         <v>17</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" t="n">
         <v>18</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" t="n">
         <v>19</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" t="n">
         <v>21</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" t="n">
         <v>22</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" t="n">
         <v>23</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" t="n">
         <v>24</v>
       </c>
-      <c r="K3" t="str">
-        <v>2024-02-26</v>
-      </c>
-      <c r="L3" t="str">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>26</v>
       </c>
-      <c r="M3" t="str">
-        <v>2024-03-04 18:36:08</v>
-      </c>
-      <c r="N3" t="str">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-05 00:14:26</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" t="n">
         <v>7</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" t="n">
         <v>10</v>
       </c>
-      <c r="K4" t="str">
-        <v>2024-02-27</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>12</v>
       </c>
-      <c r="M4" t="str">
-        <v>2024-03-04 13:04:20</v>
-      </c>
-      <c r="N4" t="str">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:04:20</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" t="n">
         <v>15</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" t="n">
         <v>16</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" t="n">
         <v>18</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" t="n">
         <v>19</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" t="n">
         <v>20</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" t="n">
         <v>21</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5" t="n">
         <v>22</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" t="n">
         <v>23</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" t="n">
         <v>24</v>
       </c>
-      <c r="K5" t="str">
-        <v>2024-02-28</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>26</v>
       </c>
-      <c r="M5" t="str">
-        <v>2024-03-04 18:36:08</v>
-      </c>
-      <c r="N5" t="str">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-03-04 18:36:08</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" t="n">
         <v>1</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" t="n">
         <v>7</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6" t="n">
         <v>8</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" t="n">
         <v>9</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" t="n">
         <v>10</v>
       </c>
-      <c r="K6" t="str">
-        <v>2024-02-28</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>12</v>
       </c>
-      <c r="M6" t="str">
-        <v>2024-03-04 13:15:33</v>
-      </c>
-      <c r="N6" t="str">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:15:33</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7" t="n">
         <v>1</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" t="n">
         <v>7</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" t="n">
         <v>8</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" t="n">
         <v>9</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" t="n">
         <v>10</v>
       </c>
-      <c r="K7" t="str">
-        <v>2024-02-28</v>
-      </c>
-      <c r="L7" t="str">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
         <v>12</v>
       </c>
-      <c r="M7" t="str">
-        <v>2024-03-04 13:15:33</v>
-      </c>
-      <c r="N7" t="str">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:15:33</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8" t="n">
         <v>15</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" t="n">
         <v>16</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" t="n">
         <v>18</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" t="n">
         <v>19</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" t="n">
         <v>20</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" t="n">
         <v>21</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" t="n">
         <v>22</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" t="n">
         <v>23</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" t="n">
         <v>24</v>
       </c>
-      <c r="K8" t="str">
-        <v>2024-02-28</v>
-      </c>
-      <c r="L8" t="str">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
         <v>26</v>
       </c>
-      <c r="M8" t="str">
-        <v>2024-03-04 18:36:08</v>
-      </c>
-      <c r="N8" t="str">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2024-03-04 18:36:08</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9" t="n">
         <v>29</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" t="n">
         <v>30</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" t="n">
         <v>31</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" t="n">
         <v>32</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" t="n">
         <v>33</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" t="n">
         <v>34</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" t="n">
         <v>35</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9" t="n">
         <v>36</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" t="n">
         <v>37</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" t="n">
         <v>38</v>
       </c>
-      <c r="K9" t="str">
-        <v>2024-02-28</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
         <v>40</v>
       </c>
-      <c r="M9" t="str">
-        <v>2024-03-04 18:36:08</v>
-      </c>
-      <c r="N9" t="str">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2024-03-04 18:36:08</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N9"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Field Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Max Length</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Field format</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Remarks</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Field Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Max Length</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Field format</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>ApplicationCode</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C2" t="str">
-        <v>3</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Alpha</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Unique 3 digit application code Ex: CCP, RMT,RBK etc..</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Unique 3 digit application code Ex: CCP, RMT,RBK etc..</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>AccountOwner</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C3" t="str">
-        <v>7</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Numeric</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Unique 6 Digit LAN ID of the account owner</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Numeric</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Unique 6 Digit LAN ID of the account owner</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>AccountName</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C4" t="str">
-        <v>100</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Unique Application Account ID / Name used by users to login to the application (case sensitive)</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Unique Application Account ID / Name used by users to login to the application (case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>AccountType</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C5" t="str">
-        <v>3</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E5" t="str">
-        <v>User [USR] / Generic [GEN] / Service [SER] / System [SYS] (non-case sensitive)</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>User [USR] / Generic [GEN] / Service [SER] / System [SYS] (non-case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>EntitlementName</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Application entitlement values.</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Application entitlement values.</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>SecondEntitlementName</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Additional Application entitlement values. If no additional value mark it as “NA”.</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Additional Application entitlement values. If no additional value mark it as “NA”.</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>ThirdEntitlementName</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Additional Application entitlement values. If no additional value mark it as “NA”.</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Additional Application entitlement values. If no additional value mark it as “NA”.</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>AccountStatus</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C9" t="str">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Active / Disabled / Locked / Deleted status</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Active / Disabled / Locked / Deleted status</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>IsPrivileged</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C10" t="str">
-        <v>1</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Defines if account is privileged. ‘yes’ [Y] or ‘no’ [N] value (non-case sensitive)</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Defines if account is privileged. ‘yes’ [Y] or ‘no’ [N] value (non-case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>AccountDescription</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C11" t="str">
-        <v>255</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Business friendly description of the Account. Account description is mandatory for non-user accounts.</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Business friendly description of the Account. Account description is mandatory for non-user accounts.</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>CreateDate</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C12" t="str">
-        <v>14</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Date on which account was created.</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Date on which account was created.</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>LastLogin</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C13" t="str">
-        <v>14</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Last date and time the account was used.</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Last date and time the account was used.</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>LastUpdatedDate</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C14" t="str">
-        <v>14</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Last modified date of account (if available in application).</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Last modified date of account (if available in application).</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>AdditionalAttribute</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C15" t="str">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Additional access related attributes delimited with “#’</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Additional access related attributes delimited with “#’</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,7 +615,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-03-05 00:14:26</t>
+          <t>2024-03-05 06:03:35</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -624,289 +624,193 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-03-04 13:04:20</t>
+          <t>2024-03-05 06:03:35</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-03-04 18:36:08</t>
+          <t>2024-03-04 13:04:20</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-03-04 13:15:33</t>
+          <t>2024-03-04 18:36:08</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2024-03-04 13:15:33</t>
+          <t>2024-03-05 06:05:01</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>18</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20</v>
-      </c>
-      <c r="G8" t="n">
-        <v>21</v>
-      </c>
-      <c r="H8" t="n">
-        <v>22</v>
-      </c>
-      <c r="I8" t="n">
-        <v>23</v>
-      </c>
-      <c r="J8" t="n">
-        <v>24</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-02-28</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>26</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2024-03-04 18:36:08</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>29</v>
-      </c>
-      <c r="B9" t="n">
-        <v>30</v>
-      </c>
-      <c r="C9" t="n">
-        <v>31</v>
-      </c>
-      <c r="D9" t="n">
-        <v>32</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>34</v>
-      </c>
-      <c r="G9" t="n">
-        <v>35</v>
-      </c>
-      <c r="H9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I9" t="n">
-        <v>37</v>
-      </c>
-      <c r="J9" t="n">
-        <v>38</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2024-02-28</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>40</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2024-03-04 18:36:08</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
         <v>42</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +559,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -567,7 +567,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-03 08:16:53</t>
+          <t>2024-03-05 10:44:03</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -576,34 +576,34 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -611,207 +611,63 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-03-05 06:03:35</t>
+          <t>2024-03-03 08:16:53</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-03-05 06:03:35</t>
+          <t>2024-03-04 13:04:20</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024-02-27</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>12</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024-03-04 13:04:20</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B6" t="n">
-        <v>16</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19</v>
-      </c>
-      <c r="F6" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" t="n">
-        <v>21</v>
-      </c>
-      <c r="H6" t="n">
-        <v>22</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>24</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-02-27</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>26</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2024-03-04 18:36:08</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>29</v>
-      </c>
-      <c r="B7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C7" t="n">
-        <v>31</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>34</v>
-      </c>
-      <c r="G7" t="n">
-        <v>35</v>
-      </c>
-      <c r="H7" t="n">
-        <v>36</v>
-      </c>
-      <c r="I7" t="n">
-        <v>37</v>
-      </c>
-      <c r="J7" t="n">
-        <v>38</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-02-27</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>40</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024-03-05 06:05:01</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -1,53 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Field Name" sheetId="1" r:id="rId1"/>
-    <sheet name="Application Data Requirements" sheetId="2" r:id="rId2"/>
+    <sheet name="Field Name" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Application Data Requirements" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,13 +43,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,460 +441,660 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>ApplicationCode</v>
-      </c>
-      <c r="B1" t="str">
-        <v>AccountOwner</v>
-      </c>
-      <c r="C1" t="str">
-        <v>AccountName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>AccountType</v>
-      </c>
-      <c r="E1" t="str">
-        <v>EntitlementName</v>
-      </c>
-      <c r="F1" t="str">
-        <v>SecondEntitlementName</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ThirdEntitlementName</v>
-      </c>
-      <c r="H1" t="str">
-        <v>AccountStatus</v>
-      </c>
-      <c r="I1" t="str">
-        <v>IsPrivileged</v>
-      </c>
-      <c r="J1" t="str">
-        <v>AccountDescription</v>
-      </c>
-      <c r="K1" t="str">
-        <v>CreateDate</v>
-      </c>
-      <c r="L1" t="str">
-        <v>LastLogin</v>
-      </c>
-      <c r="M1" t="str">
-        <v>LastUpdatedDate</v>
-      </c>
-      <c r="N1" t="str">
-        <v>AdditionalAttribute</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" t="n">
         <v>6</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" t="n">
         <v>8</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" t="n">
         <v>10</v>
       </c>
-      <c r="K2" t="str">
-        <v>2024-02-25</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-02-25</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>12</v>
       </c>
-      <c r="M2" t="str">
-        <v>2024-03-05 12:21:50</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-05 12:21:50</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" t="n">
         <v>5</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" t="n">
         <v>9</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" t="n">
         <v>10</v>
       </c>
-      <c r="K3" t="str">
-        <v>2024-02-26</v>
-      </c>
-      <c r="L3" t="str">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>12</v>
       </c>
-      <c r="M3" t="str">
-        <v>2024-03-03 08:16:53</v>
-      </c>
-      <c r="N3" t="str">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-03 08:16:53</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" t="n">
         <v>7</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" t="n">
         <v>10</v>
       </c>
-      <c r="K4" t="str">
-        <v>2024-02-27</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>12</v>
       </c>
-      <c r="M4" t="str">
-        <v>2024-03-04 13:04:20</v>
-      </c>
-      <c r="N4" t="str">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:04:20</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N4"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Field Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Max Length</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Field format</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Remarks</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Field Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Max Length</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Field format</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>ApplicationCode</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C2" t="str">
-        <v>3</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Alpha</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Unique 3 digit application code Ex: CCP, RMT,RBK etc..</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Unique 3 digit application code Ex: CCP, RMT,RBK etc..</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>AccountOwner</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C3" t="str">
-        <v>7</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Numeric</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Unique 6 Digit LAN ID of the account owner</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Numeric</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Unique 6 Digit LAN ID of the account owner</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>AccountName</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C4" t="str">
-        <v>100</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Unique Application Account ID / Name used by users to login to the application (case sensitive)</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Unique Application Account ID / Name used by users to login to the application (case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>AccountType</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C5" t="str">
-        <v>3</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E5" t="str">
-        <v>User [USR] / Generic [GEN] / Service [SER] / System [SYS] (non-case sensitive)</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>User [USR] / Generic [GEN] / Service [SER] / System [SYS] (non-case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>EntitlementName</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Application entitlement values.</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Application entitlement values.</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>SecondEntitlementName</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Additional Application entitlement values. If no additional value mark it as “NA”.</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Additional Application entitlement values. If no additional value mark it as “NA”.</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>ThirdEntitlementName</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Multivalued</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Additional Application entitlement values. If no additional value mark it as “NA”.</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Multivalued</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Additional Application entitlement values. If no additional value mark it as “NA”.</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>AccountStatus</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C9" t="str">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Active / Disabled / Locked / Deleted status</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Active / Disabled / Locked / Deleted status</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>IsPrivileged</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C10" t="str">
-        <v>1</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Defines if account is privileged. ‘yes’ [Y] or ‘no’ [N] value (non-case sensitive)</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Defines if account is privileged. ‘yes’ [Y] or ‘no’ [N] value (non-case sensitive)</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>AccountDescription</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C11" t="str">
-        <v>255</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Business friendly description of the Account. Account description is mandatory for non-user accounts.</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Business friendly description of the Account. Account description is mandatory for non-user accounts.</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>CreateDate</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C12" t="str">
-        <v>14</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Date on which account was created.</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Date on which account was created.</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>LastLogin</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Mandatory</v>
-      </c>
-      <c r="C13" t="str">
-        <v>14</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Last date and time the account was used.</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Last date and time the account was used.</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>LastUpdatedDate</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C14" t="str">
-        <v>14</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Numeric (YYYYMMDDHHMMSS)</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Last modified date of account (if available in application).</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Numeric (YYYYMMDDHHMMSS)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Last modified date of account (if available in application).</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>AdditionalAttribute</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Optional</v>
-      </c>
-      <c r="C15" t="str">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Alpha-Numeric</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Additional access related attributes delimited with “#’</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Alpha-Numeric</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Additional access related attributes delimited with “#’</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,6 +667,54 @@
         </is>
       </c>
       <c r="N4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-03-07 16:33:31</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,6 +716,102 @@
       </c>
       <c r="N5" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>12</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024-03-08 13:41:26</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>26</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-03-08 14:01:40</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,54 +764,6 @@
       </c>
       <c r="N6" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23</v>
-      </c>
-      <c r="J7" t="n">
-        <v>24</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-03-08</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>26</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024-03-08 14:01:40</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,102 @@
       </c>
       <c r="N6" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>26</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:50:26</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29</v>
+      </c>
+      <c r="B8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35</v>
+      </c>
+      <c r="H8" t="n">
+        <v>36</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>38</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>40</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:50:26</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,102 +764,6 @@
       </c>
       <c r="N6" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23</v>
-      </c>
-      <c r="J7" t="n">
-        <v>24</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-03-08</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>26</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:50:26</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>29</v>
-      </c>
-      <c r="B8" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" t="n">
-        <v>31</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>34</v>
-      </c>
-      <c r="G8" t="n">
-        <v>35</v>
-      </c>
-      <c r="H8" t="n">
-        <v>36</v>
-      </c>
-      <c r="I8" t="n">
-        <v>37</v>
-      </c>
-      <c r="J8" t="n">
-        <v>38</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-03-08</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:50:26</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-03-08 13:41:26</t>
+          <t>2024-03-08 23:51:43</t>
         </is>
       </c>
       <c r="N6" t="n">

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,54 @@
       </c>
       <c r="N6" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>26</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-03-08 23:57:00</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,6 +812,54 @@
       </c>
       <c r="N7" t="n">
         <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2024-03-09 00:00:14</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -855,7 +855,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-03-09 00:00:14</t>
+          <t>2024-03-09 09:28:15</t>
         </is>
       </c>
       <c r="N8" t="n">

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,6 +859,54 @@
         </is>
       </c>
       <c r="N8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>12</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2024-03-10 16:34:29</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,6 +907,54 @@
         </is>
       </c>
       <c r="N9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>12</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:29:44</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -12,7 +12,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -42,8 +44,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,16 +562,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>12</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2024-03-05 12:21:50</t>
-        </is>
+      <c r="M2" s="1" t="n">
+        <v>45362.92849034722</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
@@ -607,7 +608,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -615,7 +616,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-03-03 08:16:53</t>
+          <t>2024-03-05 12:21:50</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -655,7 +656,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -663,7 +664,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-03-04 13:04:20</t>
+          <t>2024-03-03 08:16:53</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -703,7 +704,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -711,7 +712,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-03-07 16:33:31</t>
+          <t>2024-03-04 13:04:20</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -751,7 +752,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -759,7 +760,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-03-08 23:51:43</t>
+          <t>2024-03-07 16:33:31</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -768,34 +769,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -803,63 +804,63 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2024-03-08 23:57:00</t>
+          <t>2024-03-08 23:51:43</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-03-09 09:28:15</t>
+          <t>2024-03-08 23:57:00</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -895,7 +896,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -903,7 +904,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024-03-10 16:34:29</t>
+          <t>2024-03-09 09:28:15</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -943,7 +944,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -951,11 +952,335 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2024-03-11 10:29:44</t>
+          <t>2024-03-10 16:34:29</t>
         </is>
       </c>
       <c r="N10" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>12</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:29:44</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
+        <v>21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>45362.92740283564</v>
+      </c>
+      <c r="N12" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>34</v>
+      </c>
+      <c r="G13" t="n">
+        <v>35</v>
+      </c>
+      <c r="H13" t="n">
+        <v>36</v>
+      </c>
+      <c r="I13" t="n">
+        <v>37</v>
+      </c>
+      <c r="J13" t="n">
+        <v>38</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>40</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>45362.92788554398</v>
+      </c>
+      <c r="N13" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>43</v>
+      </c>
+      <c r="B14" t="n">
+        <v>44</v>
+      </c>
+      <c r="C14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>46</v>
+      </c>
+      <c r="E14" t="n">
+        <v>47</v>
+      </c>
+      <c r="F14" t="n">
+        <v>48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>49</v>
+      </c>
+      <c r="H14" t="n">
+        <v>50</v>
+      </c>
+      <c r="I14" t="n">
+        <v>51</v>
+      </c>
+      <c r="J14" t="n">
+        <v>52</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>54</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>45362.92788554398</v>
+      </c>
+      <c r="N14" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57</v>
+      </c>
+      <c r="B15" t="n">
+        <v>58</v>
+      </c>
+      <c r="C15" t="n">
+        <v>59</v>
+      </c>
+      <c r="D15" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61</v>
+      </c>
+      <c r="F15" t="n">
+        <v>62</v>
+      </c>
+      <c r="G15" t="n">
+        <v>63</v>
+      </c>
+      <c r="H15" t="n">
+        <v>64</v>
+      </c>
+      <c r="I15" t="n">
+        <v>65</v>
+      </c>
+      <c r="J15" t="n">
+        <v>66</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>68</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>45362.92788554398</v>
+      </c>
+      <c r="N15" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>71</v>
+      </c>
+      <c r="B16" t="n">
+        <v>72</v>
+      </c>
+      <c r="C16" t="n">
+        <v>73</v>
+      </c>
+      <c r="D16" t="n">
+        <v>74</v>
+      </c>
+      <c r="E16" t="n">
+        <v>75</v>
+      </c>
+      <c r="F16" t="n">
+        <v>76</v>
+      </c>
+      <c r="G16" t="n">
+        <v>77</v>
+      </c>
+      <c r="H16" t="n">
+        <v>78</v>
+      </c>
+      <c r="I16" t="n">
+        <v>79</v>
+      </c>
+      <c r="J16" t="n">
+        <v>80</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>82</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>45362.92788554398</v>
+      </c>
+      <c r="N16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>84</v>
+      </c>
+      <c r="B17" t="n">
+        <v>85</v>
+      </c>
+      <c r="C17" t="n">
+        <v>86</v>
+      </c>
+      <c r="D17" t="n">
+        <v>87</v>
+      </c>
+      <c r="E17" t="n">
+        <v>88</v>
+      </c>
+      <c r="F17" t="n">
+        <v>89</v>
+      </c>
+      <c r="G17" t="n">
+        <v>90</v>
+      </c>
+      <c r="H17" t="n">
+        <v>91</v>
+      </c>
+      <c r="I17" t="n">
+        <v>92</v>
+      </c>
+      <c r="J17" t="n">
+        <v>93</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>95</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>45362.92788554398</v>
+      </c>
+      <c r="N17" t="n">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,282 +1005,6 @@
       </c>
       <c r="N11" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>15</v>
-      </c>
-      <c r="B12" t="n">
-        <v>16</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17</v>
-      </c>
-      <c r="D12" t="n">
-        <v>18</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19</v>
-      </c>
-      <c r="F12" t="n">
-        <v>20</v>
-      </c>
-      <c r="G12" t="n">
-        <v>21</v>
-      </c>
-      <c r="H12" t="n">
-        <v>22</v>
-      </c>
-      <c r="I12" t="n">
-        <v>23</v>
-      </c>
-      <c r="J12" t="n">
-        <v>24</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>26</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>45362.92740283564</v>
-      </c>
-      <c r="N12" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>29</v>
-      </c>
-      <c r="B13" t="n">
-        <v>30</v>
-      </c>
-      <c r="C13" t="n">
-        <v>31</v>
-      </c>
-      <c r="D13" t="n">
-        <v>32</v>
-      </c>
-      <c r="E13" t="n">
-        <v>33</v>
-      </c>
-      <c r="F13" t="n">
-        <v>34</v>
-      </c>
-      <c r="G13" t="n">
-        <v>35</v>
-      </c>
-      <c r="H13" t="n">
-        <v>36</v>
-      </c>
-      <c r="I13" t="n">
-        <v>37</v>
-      </c>
-      <c r="J13" t="n">
-        <v>38</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>40</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>45362.92788554398</v>
-      </c>
-      <c r="N13" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>43</v>
-      </c>
-      <c r="B14" t="n">
-        <v>44</v>
-      </c>
-      <c r="C14" t="n">
-        <v>45</v>
-      </c>
-      <c r="D14" t="n">
-        <v>46</v>
-      </c>
-      <c r="E14" t="n">
-        <v>47</v>
-      </c>
-      <c r="F14" t="n">
-        <v>48</v>
-      </c>
-      <c r="G14" t="n">
-        <v>49</v>
-      </c>
-      <c r="H14" t="n">
-        <v>50</v>
-      </c>
-      <c r="I14" t="n">
-        <v>51</v>
-      </c>
-      <c r="J14" t="n">
-        <v>52</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>54</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>45362.92788554398</v>
-      </c>
-      <c r="N14" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>57</v>
-      </c>
-      <c r="B15" t="n">
-        <v>58</v>
-      </c>
-      <c r="C15" t="n">
-        <v>59</v>
-      </c>
-      <c r="D15" t="n">
-        <v>60</v>
-      </c>
-      <c r="E15" t="n">
-        <v>61</v>
-      </c>
-      <c r="F15" t="n">
-        <v>62</v>
-      </c>
-      <c r="G15" t="n">
-        <v>63</v>
-      </c>
-      <c r="H15" t="n">
-        <v>64</v>
-      </c>
-      <c r="I15" t="n">
-        <v>65</v>
-      </c>
-      <c r="J15" t="n">
-        <v>66</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>68</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>45362.92788554398</v>
-      </c>
-      <c r="N15" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>71</v>
-      </c>
-      <c r="B16" t="n">
-        <v>72</v>
-      </c>
-      <c r="C16" t="n">
-        <v>73</v>
-      </c>
-      <c r="D16" t="n">
-        <v>74</v>
-      </c>
-      <c r="E16" t="n">
-        <v>75</v>
-      </c>
-      <c r="F16" t="n">
-        <v>76</v>
-      </c>
-      <c r="G16" t="n">
-        <v>77</v>
-      </c>
-      <c r="H16" t="n">
-        <v>78</v>
-      </c>
-      <c r="I16" t="n">
-        <v>79</v>
-      </c>
-      <c r="J16" t="n">
-        <v>80</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>82</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>45362.92788554398</v>
-      </c>
-      <c r="N16" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>84</v>
-      </c>
-      <c r="B17" t="n">
-        <v>85</v>
-      </c>
-      <c r="C17" t="n">
-        <v>86</v>
-      </c>
-      <c r="D17" t="n">
-        <v>87</v>
-      </c>
-      <c r="E17" t="n">
-        <v>88</v>
-      </c>
-      <c r="F17" t="n">
-        <v>89</v>
-      </c>
-      <c r="G17" t="n">
-        <v>90</v>
-      </c>
-      <c r="H17" t="n">
-        <v>91</v>
-      </c>
-      <c r="I17" t="n">
-        <v>92</v>
-      </c>
-      <c r="J17" t="n">
-        <v>93</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>95</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>45362.92788554398</v>
-      </c>
-      <c r="N17" t="n">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -769,7 +769,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -806,10 +806,8 @@
       <c r="L7" t="n">
         <v>12</v>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024-03-08 23:51:43</t>
-        </is>
+      <c r="M7" s="1" t="n">
+        <v>45363.0850352199</v>
       </c>
       <c r="N7" t="n">
         <v>14</v>
@@ -817,50 +815,50 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-03-08 23:57:00</t>
+          <t>2024-03-09 09:28:15</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +894,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -904,7 +902,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024-03-09 09:28:15</t>
+          <t>2024-03-10 16:34:29</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -944,16 +942,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>12</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2024-03-10 16:34:29</t>
-        </is>
+      <c r="M10" s="1" t="n">
+        <v>45362.99989106481</v>
       </c>
       <c r="N10" t="n">
         <v>14</v>
@@ -992,16 +988,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>12</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2024-03-11 10:29:44</t>
-        </is>
+      <c r="M11" s="1" t="n">
+        <v>45363.00141482639</v>
       </c>
       <c r="N11" t="n">
         <v>14</v>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,52 +573,6 @@
       </c>
       <c r="N2" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-03-12</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>45363.6127175</v>
-      </c>
-      <c r="N3" t="n">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,52 @@
         <v>45363.60963075231</v>
       </c>
       <c r="N2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>45364.00589200231</v>
+      </c>
+      <c r="N3" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,62 +562,18 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>45363.60963075231</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-13 16:55:53</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>45364.00589200231</v>
-      </c>
-      <c r="N3" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -2,11 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet name="Field Name" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Application Data Requirements" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -449,13 +453,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -562,19 +566,63 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>12</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2024-03-13 16:55:53</t>
-        </is>
+      <c r="M2" s="1" t="n">
+        <v>45365.75421714121</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>45365.75517841435</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +642,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -566,14 +566,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>12</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>45365.75421714121</v>
+        <v>45366.6286971875</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
@@ -581,34 +581,34 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -616,13 +616,59 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>45365.75517841435</v>
+        <v>45365.75421714121</v>
       </c>
       <c r="N3" t="n">
-        <v>28</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>45366.62645054398</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -566,14 +566,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>12</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>45366.6286971875</v>
+        <v>45366.79170836806</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
@@ -612,14 +612,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>12</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>45365.75421714121</v>
+        <v>45366.6286971875</v>
       </c>
       <c r="N3" t="n">
         <v>14</v>
@@ -658,16 +658,108 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>12</v>
       </c>
       <c r="M4" s="1" t="n">
+        <v>45365.75421714121</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <v>45366.62645054398</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>45367.00438332176</v>
+      </c>
+      <c r="N6" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -566,14 +566,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>12</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>45366.79170836806</v>
+        <v>45367.01381192129</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
@@ -612,14 +612,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>12</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>45366.6286971875</v>
+        <v>45366.79170836806</v>
       </c>
       <c r="N3" t="n">
         <v>14</v>
@@ -658,14 +658,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>12</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>45365.75421714121</v>
+        <v>45366.6286971875</v>
       </c>
       <c r="N4" t="n">
         <v>14</v>
@@ -704,14 +704,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>12</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>45366.62645054398</v>
+        <v>45365.75421714121</v>
       </c>
       <c r="N5" t="n">
         <v>14</v>
@@ -750,16 +750,62 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>12</v>
       </c>
       <c r="M6" s="1" t="n">
+        <v>45366.62645054398</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>45367.00438332176</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -806,6 +806,52 @@
         <v>45367.00438332176</v>
       </c>
       <c r="N7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>45368.94067844907</v>
+      </c>
+      <c r="N8" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -852,6 +852,52 @@
         <v>45368.94067844907</v>
       </c>
       <c r="N8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>45371.60949440972</v>
+      </c>
+      <c r="N9" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -888,16 +888,62 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>12</v>
       </c>
       <c r="M9" s="1" t="n">
+        <v>45371.65030585648</v>
+      </c>
+      <c r="N9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>12</v>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>45371.60949440972</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -944,6 +944,52 @@
         <v>45371.60949440972</v>
       </c>
       <c r="N10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>45372.43106128473</v>
+      </c>
+      <c r="N11" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -566,430 +566,16 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>12</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>45367.01381192129</v>
+        <v>45372.61027611111</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-03-12</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>45366.79170836806</v>
-      </c>
-      <c r="N3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>12</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>45366.6286971875</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024-03-14</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>12</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>45365.75421714121</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-03-15</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>45366.62645054398</v>
-      </c>
-      <c r="N6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-03-16</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>12</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>45367.00438332176</v>
-      </c>
-      <c r="N7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-03-17</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>12</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>45368.94067844907</v>
-      </c>
-      <c r="N8" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2024-03-19</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>12</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>45371.65030585648</v>
-      </c>
-      <c r="N9" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2024-03-20</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>12</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>45371.60949440972</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2024-03-21</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>12</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>45372.43106128473</v>
-      </c>
-      <c r="N11" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -576,6 +576,52 @@
         <v>45372.61027611111</v>
       </c>
       <c r="N2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>45373.46045635417</v>
+      </c>
+      <c r="N3" t="n">
         <v>14</v>
       </c>
     </row>

--- a/export/Application Data Requirements.xlsx
+++ b/export/Application Data Requirements.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -622,6 +622,98 @@
         <v>45373.46045635417</v>
       </c>
       <c r="N3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>45375.9272746412</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>45375.9268033912</v>
+      </c>
+      <c r="N5" t="n">
         <v>14</v>
       </c>
     </row>
